--- a/data/income_statement/2digits/size/80_IS_LARGE.xlsx
+++ b/data/income_statement/2digits/size/80_IS_LARGE.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>80-Security and investigation activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>80-Security and investigation activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,65 +841,75 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>1477494.02651</v>
+        <v>1473971.86073</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>1870746.48925</v>
+        <v>1867261.32942</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>2415386.76697</v>
+        <v>2405863.9838</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>3004128.4959</v>
+        <v>2999221.52079</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>3667513.54068</v>
+        <v>3664875.4866</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>4769232.99566</v>
+        <v>4765768.246440001</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>5699907.93296</v>
+        <v>5707832.142390001</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>7026775.368720001</v>
+        <v>7017215.11543</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>8684850.338879999</v>
+        <v>8675009.322949998</v>
       </c>
       <c r="L5" s="47" t="n">
         <v>7992491.97648</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>8929115.455080001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>8928901.765560001</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>9818599.654999999</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>1445363.23455</v>
+        <v>1441961.63075</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>1828002.09886</v>
+        <v>1824517.12953</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>2365750.78644</v>
+        <v>2356366.18322</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>2892477.179899999</v>
+        <v>2888973.06411</v>
       </c>
       <c r="G6" s="48" t="n">
         <v>3518828.72654</v>
@@ -1007,28 +918,33 @@
         <v>4644918.89346</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>5524394.265870001</v>
+        <v>5536594.242299999</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>6885181.34442</v>
+        <v>6882069.334139999</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>8483980.42946</v>
+        <v>8479357.730070001</v>
       </c>
       <c r="L6" s="48" t="n">
         <v>7808841.1452</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>8730257.56463</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>8730043.87511</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>9603049.255999999</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>23874.64652</v>
+        <v>23754.08454</v>
       </c>
       <c r="D7" s="48" t="n">
         <v>24316.27735</v>
@@ -1060,38 +976,43 @@
       <c r="M7" s="48" t="n">
         <v>20402.1735</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="48" t="n">
+        <v>23852.85</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>8256.14544</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>18428.11304</v>
+        <v>18427.92254</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>18144.91772</v>
+        <v>18006.73777</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>56401.43003</v>
+        <v>54998.57071</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>80601.14014</v>
+        <v>77963.08606</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>56560.18573</v>
+        <v>53095.43651000001</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>99847.83833</v>
+        <v>95572.07132999999</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>131581.20687</v>
+        <v>125132.96386</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>188531.05624</v>
+        <v>183312.7397</v>
       </c>
       <c r="L8" s="48" t="n">
         <v>165678.13368</v>
@@ -1099,23 +1020,28 @@
       <c r="M8" s="48" t="n">
         <v>178455.71695</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8" s="48" t="n">
+        <v>191697.549</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>7677.46093</v>
+        <v>7597.21569</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>9408.251690000001</v>
+        <v>9384.79758</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>15985.54039</v>
+        <v>15913.4532</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>31051.1593</v>
+        <v>30829.55679</v>
       </c>
       <c r="G9" s="47" t="n">
         <v>35173.86643</v>
@@ -1127,10 +1053,10 @@
         <v>65036.29229999999</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>90873.5384</v>
+        <v>89424.70043000001</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>128879.87232</v>
+        <v>127932.24732</v>
       </c>
       <c r="L9" s="47" t="n">
         <v>197516.85159</v>
@@ -1138,23 +1064,28 @@
       <c r="M9" s="47" t="n">
         <v>206386.19169</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="47" t="n">
+        <v>195910.957</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>2814.20878</v>
+        <v>2759.74901</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>3505.42185</v>
+        <v>3481.96774</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>3863.17202</v>
+        <v>3791.08483</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>5887.22189</v>
+        <v>5685.19168</v>
       </c>
       <c r="G10" s="48" t="n">
         <v>5504.41169</v>
@@ -1166,10 +1097,10 @@
         <v>13057.06944</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>32762.08058</v>
+        <v>31313.24261</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>44245.21884</v>
+        <v>43297.59384</v>
       </c>
       <c r="L10" s="48" t="n">
         <v>62684.32325</v>
@@ -1177,14 +1108,19 @@
       <c r="M10" s="48" t="n">
         <v>74177.7741</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="48" t="n">
+        <v>115370.469</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>4658.631909999999</v>
+        <v>4632.846439999999</v>
       </c>
       <c r="D11" s="48" t="n">
         <v>4170.44957</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>131886.49337</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>80395.512</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>204.62024</v>
@@ -1232,7 +1173,7 @@
         <v>416.87661</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>113.89743</v>
+        <v>94.32513</v>
       </c>
       <c r="G12" s="48" t="n">
         <v>341.48414</v>
@@ -1255,62 +1196,72 @@
       <c r="M12" s="48" t="n">
         <v>321.92422</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>144.976</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>1469816.56558</v>
+        <v>1466374.64504</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>1861338.23756</v>
+        <v>1857876.53184</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>2399401.22658</v>
+        <v>2389950.5306</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>2973077.3366</v>
+        <v>2968391.964</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>3632339.67425</v>
+        <v>3629701.62017</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>4722666.849909999</v>
+        <v>4719202.100690001</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>5634871.64066</v>
+        <v>5642795.850089999</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>6935901.83032</v>
+        <v>6927790.415</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>8555970.466559999</v>
+        <v>8547077.07563</v>
       </c>
       <c r="L13" s="47" t="n">
         <v>7794975.12489</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>8722729.263389999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>8722515.573870001</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>9622688.698000001</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>1270582.6555</v>
+        <v>1270122.85233</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>1646597.25375</v>
+        <v>1645880.06162</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>2087734.33413</v>
+        <v>2083118.58392</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>2520252.76757</v>
+        <v>2523813.93325</v>
       </c>
       <c r="G14" s="47" t="n">
         <v>3133761.14689</v>
@@ -1319,13 +1270,13 @@
         <v>4139962.40215</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>5000733.66139</v>
+        <v>5012177.72784</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>6174302.66102</v>
+        <v>6173855.023440001</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>7588346.52037</v>
+        <v>7588173.40499</v>
       </c>
       <c r="L14" s="47" t="n">
         <v>6806926.378769999</v>
@@ -1333,11 +1284,16 @@
       <c r="M14" s="47" t="n">
         <v>7613915.43507</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14" s="47" t="n">
+        <v>8404524.289999999</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>0</v>
@@ -1361,7 +1317,7 @@
         <v>28993.99775</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>983.14719</v>
+        <v>937.09306</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>2187.60953</v>
@@ -1372,23 +1328,28 @@
       <c r="M15" s="48" t="n">
         <v>3711.93012</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="48" t="n">
+        <v>8482.434999999999</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>12705.23225</v>
+        <v>12362.52214</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>14254.83561</v>
+        <v>14075.12783</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>52840.05857</v>
+        <v>52675.38258999999</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>14291.42145</v>
+        <v>14043.47104</v>
       </c>
       <c r="G16" s="48" t="n">
         <v>67299.54996999999</v>
@@ -1400,7 +1361,7 @@
         <v>228774.477</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>75810.93606000001</v>
+        <v>75603.46554999999</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>107538.41183</v>
@@ -1411,23 +1372,28 @@
       <c r="M16" s="48" t="n">
         <v>90022.29574000002</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16" s="48" t="n">
+        <v>32380.71</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>1257783.81131</v>
+        <v>1257666.71825</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>1631995.74263</v>
+        <v>1631458.25828</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>2034308.07176</v>
+        <v>2029856.99753</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>2485474.56557</v>
+        <v>2489283.68166</v>
       </c>
       <c r="G17" s="48" t="n">
         <v>3051381.30031</v>
@@ -1436,13 +1402,13 @@
         <v>3922140.39092</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>4736391.39802</v>
+        <v>4747835.46447</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>6092437.749360001</v>
+        <v>6092243.63642</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>7468390.103929999</v>
+        <v>7468216.98855</v>
       </c>
       <c r="L17" s="48" t="n">
         <v>6690790.994870001</v>
@@ -1450,11 +1416,16 @@
       <c r="M17" s="48" t="n">
         <v>7514097.06036</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17" s="48" t="n">
+        <v>8356752.282</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>93.61194</v>
@@ -1489,77 +1460,87 @@
       <c r="M18" s="48" t="n">
         <v>6084.14885</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>6908.863</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>199233.91008</v>
+        <v>196251.79271</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>214740.98381</v>
+        <v>211996.47022</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>311666.89245</v>
+        <v>306831.94668</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>452824.56903</v>
+        <v>444578.03075</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>498578.5273599999</v>
+        <v>495940.47328</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>582704.44776</v>
+        <v>579239.69854</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>634137.97927</v>
+        <v>630618.12225</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>761599.1693</v>
+        <v>753935.3915599999</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>967623.94619</v>
+        <v>958903.67064</v>
       </c>
       <c r="L19" s="47" t="n">
         <v>988048.74612</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1108813.82832</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1108600.1388</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1218164.408</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>144818.81317</v>
+        <v>142118.99764</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>159395.622</v>
+        <v>155998.46339</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>261790.67648</v>
+        <v>256513.16702</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>397631.56418</v>
+        <v>388717.69904</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>400713.3542000001</v>
+        <v>397833.13981</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>435343.38564</v>
+        <v>432122.60583</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>471752.58849</v>
+        <v>467886.91908</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>564748.21827</v>
+        <v>557758.89478</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>675969.63538</v>
+        <v>666861.464</v>
       </c>
       <c r="L20" s="47" t="n">
         <v>689645.73778</v>
@@ -1567,11 +1548,16 @@
       <c r="M20" s="47" t="n">
         <v>772142.33634</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20" s="47" t="n">
+        <v>757938.103</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>0</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>2182.28467</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>3832.361</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>21946.99683</v>
@@ -1619,25 +1610,25 @@
         <v>24533.81976</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>62931.50695</v>
+        <v>62925.01306</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>121555.32688</v>
+        <v>121554.15188</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>90085.98032</v>
+        <v>90085.97295</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>86690.30587000001</v>
+        <v>86690.28985</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>102976.56678</v>
+        <v>102976.54983</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>116448.23876</v>
+        <v>116378.69447</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>144281.55123</v>
+        <v>144161.21685</v>
       </c>
       <c r="L22" s="48" t="n">
         <v>164270.65747</v>
@@ -1645,38 +1636,43 @@
       <c r="M22" s="48" t="n">
         <v>177755.88955</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22" s="48" t="n">
+        <v>150595.113</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>122871.81634</v>
+        <v>120172.00081</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>134861.80224</v>
+        <v>131464.64363</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>198859.16953</v>
+        <v>193588.15396</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>276074.2373</v>
+        <v>267161.54716</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>310627.37388</v>
+        <v>307747.16686</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>348424.71675</v>
+        <v>345203.95296</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>368773.77171</v>
+        <v>364908.11925</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>448267.70387</v>
+        <v>441347.92467</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>531688.08415</v>
+        <v>522700.24715</v>
       </c>
       <c r="L23" s="48" t="n">
         <v>524162.85039</v>
@@ -1684,89 +1680,104 @@
       <c r="M23" s="48" t="n">
         <v>592204.16212</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23" s="48" t="n">
+        <v>603510.629</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>54415.09691000001</v>
+        <v>54132.79507000001</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>55345.36181</v>
+        <v>55998.00683</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>49876.21597</v>
+        <v>50318.77966000001</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>55193.00485</v>
+        <v>55860.33171000001</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>97865.17315999999</v>
+        <v>98107.33347</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>147361.06212</v>
+        <v>147117.09271</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>162385.39078</v>
+        <v>162731.20317</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>196850.95103</v>
+        <v>196176.49678</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>291654.31081</v>
+        <v>292042.20664</v>
       </c>
       <c r="L24" s="47" t="n">
         <v>298403.00834</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>336671.49198</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>336457.80246</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>460226.305</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>21610.49794</v>
+        <v>21394.31997</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>19361.18029</v>
+        <v>19283.3949</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>34983.37173</v>
+        <v>32598.85942</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>50449.62213</v>
+        <v>44323.91762000001</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>39289.44425</v>
+        <v>36677.13408</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>76926.68001</v>
+        <v>72465.76659999999</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>74472.02787000001</v>
+        <v>67537.74737000001</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>142842.35081</v>
+        <v>119965.17845</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>195667.02543</v>
+        <v>187888.25319</v>
       </c>
       <c r="L25" s="47" t="n">
         <v>380243.77821</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>221869.94697</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>222452.10838</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>330042.252</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>2876.10309</v>
@@ -1784,7 +1795,7 @@
         <v>2645.67538</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>2390.2615</v>
+        <v>2333.7068</v>
       </c>
       <c r="I26" s="48" t="n">
         <v>3013.48931</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>1700</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>582.8205400000001</v>
@@ -1826,10 +1842,10 @@
         <v>3892.79754</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>6644.53684</v>
+        <v>5077.48021</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>21123.48896</v>
+        <v>4424.56496</v>
       </c>
       <c r="K27" s="48" t="n">
         <v>2226.98918</v>
@@ -1840,50 +1856,60 @@
       <c r="M27" s="48" t="n">
         <v>133.36154</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>4.405</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>3107.43695</v>
+        <v>2938.77189</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>3247.63436</v>
+        <v>3195.10824</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>4181.55346</v>
+        <v>3470.28758</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>10175.43771</v>
+        <v>7117.60133</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>7812.03267</v>
+        <v>5203.08066</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>10314.95575</v>
+        <v>5980.212050000001</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>17499.94197</v>
+        <v>12341.92969</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>19638.79609</v>
+        <v>14100.38942</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>29000.58959</v>
+        <v>21242.27914</v>
       </c>
       <c r="L28" s="48" t="n">
         <v>39401.83194</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>55970.40528</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>56032.90528</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>44095.485</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>3.92148</v>
@@ -1918,23 +1944,28 @@
       <c r="M29" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>1461.15392</v>
+        <v>1445.98379</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>183.82144</v>
+        <v>170.64865</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>667.8721</v>
+        <v>664.7304399999999</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>598.02211</v>
+        <v>578.5634200000001</v>
       </c>
       <c r="G30" s="48" t="n">
         <v>1647.46341</v>
@@ -1957,26 +1988,31 @@
       <c r="M30" s="48" t="n">
         <v>7901.83868</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>7063.671</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>94.61189999999999</v>
+        <v>84.96724</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>51.92582</v>
+        <v>51.79164</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>5886.54978</v>
+        <v>5885.12449</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>592.37972</v>
+        <v>559.36885</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>218.32998</v>
+        <v>216.91988</v>
       </c>
       <c r="H31" s="48" t="n">
         <v>221.95683</v>
@@ -1988,7 +2024,7 @@
         <v>574.65076</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>1579.38314</v>
+        <v>1579.13656</v>
       </c>
       <c r="L31" s="48" t="n">
         <v>992.61252</v>
@@ -1996,38 +2032,43 @@
       <c r="M31" s="48" t="n">
         <v>535.80177</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>319.092</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>7594.440709999999</v>
+        <v>7571.920160000001</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>7635.203640000001</v>
+        <v>7623.51697</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>14588.63931</v>
+        <v>12920.14901</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>27524.92553</v>
+        <v>24509.70138</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>15319.96555</v>
+        <v>15318.01749</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>43158.99467</v>
+        <v>43089.37966</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>36045.94218999999</v>
+        <v>35836.7306</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>69155.8311</v>
+        <v>68584.81909999999</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>123736.43816</v>
+        <v>123719.63247</v>
       </c>
       <c r="L32" s="48" t="n">
         <v>306206.65585</v>
@@ -2035,11 +2076,16 @@
       <c r="M32" s="48" t="n">
         <v>131229.4999</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" s="48" t="n">
+        <v>252576.472</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>15.89471</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,23 +2164,28 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>5890.009349999999</v>
+        <v>5889.83178</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>5558.347699999999</v>
+        <v>5558.08207</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>5349.37437</v>
+        <v>5349.185189999999</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>7622.70426</v>
+        <v>7622.529840000001</v>
       </c>
       <c r="G35" s="48" t="n">
         <v>9006.404700000001</v>
@@ -2141,49 +2197,54 @@
         <v>6760.07541</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>18149.43099</v>
+        <v>18080.6013</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>27682.23717</v>
+        <v>27678.82765</v>
       </c>
       <c r="L35" s="48" t="n">
         <v>25720.38208</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>24383.14509</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>24902.8065</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>25983.127</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>5229.63637</v>
+        <v>4952.64533</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>4469.31313</v>
+        <v>4421.023990000001</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>12828.19648</v>
+        <v>12105.70832</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>20160.1827</v>
+        <v>15341.05348</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>20582.87248</v>
+        <v>20573.03984</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>20666.15652</v>
+        <v>20591.98883</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>29831.88464</v>
+        <v>29610.21603</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>41189.29206</v>
+        <v>40993.3996</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>34872.62285</v>
+        <v>34840.2593</v>
       </c>
       <c r="L36" s="47" t="n">
         <v>97080.16682</v>
@@ -2191,14 +2252,19 @@
       <c r="M36" s="47" t="n">
         <v>53598.55968</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="N36" s="47" t="n">
+        <v>123728.107</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>33.23688</v>
+        <v>31.76688</v>
       </c>
       <c r="D37" s="48" t="n">
         <v>138.06509</v>
@@ -2219,7 +2285,7 @@
         <v>547.82701</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>256.37881</v>
+        <v>256.085</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>334.56891</v>
@@ -2230,23 +2296,28 @@
       <c r="M37" s="48" t="n">
         <v>736.7985500000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>864.5410000000001</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>2221.29761</v>
+        <v>1947.43674</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>1644.44091</v>
+        <v>1597.54276</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>2064.39688</v>
+        <v>1879.7431</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>9831.82634</v>
+        <v>9812.25642</v>
       </c>
       <c r="G38" s="48" t="n">
         <v>10860.41057</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>23767.67019</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>52261.509</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>36.10272</v>
@@ -2308,38 +2384,43 @@
       <c r="M39" s="48" t="n">
         <v>1.18748</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>2041.69457</v>
+        <v>2040.15994</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>2173.57722</v>
+        <v>2172.28594</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>7061.56832</v>
+        <v>6523.94981</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>7525.39496</v>
+        <v>2725.97163</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>3943.37535</v>
+        <v>3933.54271</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>8394.56272</v>
+        <v>8320.39503</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>11986.6562</v>
+        <v>11764.98759</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>25214.54435</v>
+        <v>25130.43108</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>16796.58075</v>
+        <v>16773.7172</v>
       </c>
       <c r="L40" s="48" t="n">
         <v>84339.65368999999</v>
@@ -2347,11 +2428,16 @@
       <c r="M40" s="48" t="n">
         <v>24113.93892</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="N40" s="48" t="n">
+        <v>63370.312</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,26 +2516,31 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>897.30459</v>
+        <v>897.17905</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>511.37701</v>
+        <v>511.2773</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>3125.85707</v>
+        <v>3125.6412</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>2002.1309</v>
+        <v>2001.99493</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>4468.057130000001</v>
+        <v>4468.05713</v>
       </c>
       <c r="H43" s="48" t="n">
         <v>4056.00003</v>
@@ -2453,10 +2549,10 @@
         <v>5549.8253</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>2362.18263</v>
+        <v>2250.69725</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>2851.74459</v>
+        <v>2842.24459</v>
       </c>
       <c r="L43" s="48" t="n">
         <v>2180.30664</v>
@@ -2464,38 +2560,43 @@
       <c r="M43" s="48" t="n">
         <v>4978.96454</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="48" t="n">
+        <v>7231.745</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>21146.37658</v>
+        <v>20841.42286</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>18733.40394</v>
+        <v>18720.25102</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>47986.97776000001</v>
+        <v>47645.29265</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>52438.75829</v>
+        <v>49853.7296</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>96151.09436</v>
+        <v>93486.84993</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>119299.21399</v>
+        <v>114705.32922</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>187399.29193</v>
+        <v>181548.61093</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>234689.20071</v>
+        <v>229257.37135</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>245963.51561</v>
+        <v>239169.8391</v>
       </c>
       <c r="L44" s="47" t="n">
         <v>622123.4600799999</v>
@@ -2503,38 +2604,43 @@
       <c r="M44" s="47" t="n">
         <v>386824.58889</v>
       </c>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="N44" s="47" t="n">
+        <v>560123.1</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>19091.21417</v>
+        <v>18786.26045</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>15870.89607</v>
+        <v>15857.74315</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>45115.46029000001</v>
+        <v>44773.77518</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>48798.0068</v>
+        <v>46212.97811</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>95630.62623000001</v>
+        <v>92966.38179999999</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>118880.6871</v>
+        <v>114286.80233</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>186752.87471</v>
+        <v>180902.19371</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>233759.31814</v>
+        <v>228327.48878</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>245282.79647</v>
+        <v>238489.11996</v>
       </c>
       <c r="L45" s="48" t="n">
         <v>621431.8810899999</v>
@@ -2542,11 +2648,16 @@
       <c r="M45" s="48" t="n">
         <v>386787.74889</v>
       </c>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="N45" s="48" t="n">
+        <v>559884.7439999999</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>2055.16241</v>
@@ -2581,101 +2692,116 @@
       <c r="M46" s="48" t="n">
         <v>36.84</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>238.356</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>49649.5819</v>
+        <v>49733.04685</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>51503.82503</v>
+        <v>52140.12672</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>24044.41346</v>
+        <v>23166.63811</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>33043.68599</v>
+        <v>34989.46625</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>20420.65056999999</v>
+        <v>20724.57778</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>84322.37162000001</v>
+        <v>84285.54126</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>19626.24208</v>
+        <v>19110.12358</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>63814.80907</v>
+        <v>45890.90427999999</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>206485.19778</v>
+        <v>205920.36143</v>
       </c>
       <c r="L47" s="47" t="n">
         <v>-40556.84034999999</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>118118.29038</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>118486.76227</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>106417.35</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>7303.5567</v>
+        <v>7278.06271</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>10669.99257</v>
+        <v>10656.25122</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>20852.35758</v>
+        <v>20767.33245</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>11332.09448</v>
+        <v>11099.77592</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>15611.19853</v>
+        <v>15611.13399</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>18407.39179</v>
+        <v>18407.29551</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>18275.53924</v>
+        <v>18263.25745</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>34056.17025</v>
+        <v>33991.19695000001</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>36864.97518</v>
+        <v>36484.10851</v>
       </c>
       <c r="L48" s="47" t="n">
         <v>45772.88081</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>50655.78845</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>50869.47797</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>62533.722</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>88.47978999999999</v>
+        <v>84.91769000000001</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>72.09075999999999</v>
+        <v>71.90816000000001</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>42.41537</v>
+        <v>41.6918</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>40.34</v>
+        <v>23.68039</v>
       </c>
       <c r="G49" s="48" t="n">
         <v>85.50942999999999</v>
@@ -2696,40 +2822,45 @@
         <v>1060.49492</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>827.3648199999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>1041.05434</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>246.163</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>7215.076910000001</v>
+        <v>7193.145020000001</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>10597.90181</v>
+        <v>10584.34306</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>20809.94221</v>
+        <v>20725.64065</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>11291.75448</v>
+        <v>11076.09553</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>15525.6891</v>
+        <v>15525.62456</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>18239.09313</v>
+        <v>18238.99685</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>18116.58758</v>
+        <v>18104.30579</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>34009.76081</v>
+        <v>33944.78750999999</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>35449.54674000001</v>
+        <v>35068.68007</v>
       </c>
       <c r="L50" s="48" t="n">
         <v>44712.38589</v>
@@ -2737,38 +2868,43 @@
       <c r="M50" s="48" t="n">
         <v>49828.42363</v>
       </c>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="N50" s="48" t="n">
+        <v>62287.559</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>12888.22434</v>
+        <v>12855.77196</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>17253.6306</v>
+        <v>17238.80628</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>79093.59340000001</v>
+        <v>79090.181</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>20009.02254</v>
+        <v>19837.07755</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>21153.60283</v>
+        <v>21153.26219</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>41720.35640999999</v>
+        <v>41699.43023999999</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>26054.29645</v>
+        <v>26072.73809</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>68605.56411000001</v>
+        <v>66735.77177000001</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>55986.71202</v>
+        <v>55487.99717</v>
       </c>
       <c r="L51" s="47" t="n">
         <v>76359.22972</v>
@@ -2776,11 +2912,16 @@
       <c r="M51" s="47" t="n">
         <v>123593.34505</v>
       </c>
-    </row>
-    <row r="52" spans="1:13">
+      <c r="N51" s="47" t="n">
+        <v>58816.542</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>28.28192</v>
@@ -2815,23 +2956,28 @@
       <c r="M52" s="48" t="n">
         <v>0.40911</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>6.858</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>47.4816</v>
+        <v>41.34961</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>567.2656899999999</v>
+        <v>564.03322</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>290.37482</v>
+        <v>289.15718</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>622.16616</v>
+        <v>560.5215899999999</v>
       </c>
       <c r="G53" s="48" t="n">
         <v>335.46696</v>
@@ -2854,38 +3000,43 @@
       <c r="M53" s="48" t="n">
         <v>6548.733230000001</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>8560.557000000001</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>12812.46082</v>
+        <v>12786.14043</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>16680.71078</v>
+        <v>16669.11893</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>78792.60984</v>
+        <v>78790.41508000001</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>19384.53642</v>
+        <v>19274.236</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>20803.09776</v>
+        <v>20802.75712</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>41286.42354</v>
+        <v>41265.49737</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>25470.05536</v>
+        <v>25488.497</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>67120.7423</v>
+        <v>65250.94996</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>53085.12583999999</v>
+        <v>52586.41099</v>
       </c>
       <c r="L54" s="48" t="n">
         <v>75428.78449000001</v>
@@ -2893,50 +3044,60 @@
       <c r="M54" s="48" t="n">
         <v>117044.20271</v>
       </c>
-    </row>
-    <row r="55" spans="1:13">
+      <c r="N54" s="48" t="n">
+        <v>50249.127</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>44064.91426000001</v>
+        <v>44155.3376</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>44920.187</v>
+        <v>45557.57165999999</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-34196.82236</v>
+        <v>-35156.21044</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>24366.75793</v>
+        <v>26252.16462</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>14878.24627000001</v>
+        <v>15182.44958000001</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>61009.40699999999</v>
+        <v>60993.40652999999</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>11847.48487</v>
+        <v>11300.64294</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>29265.41520999999</v>
+        <v>13146.32945999999</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>187363.46094</v>
+        <v>186916.47277</v>
       </c>
       <c r="L55" s="47" t="n">
         <v>-71143.18926000001</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>45180.73377999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>45762.89518999998</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>110134.53</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>10198.75282</v>
@@ -2945,10 +3106,10 @@
         <v>10673.35077</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>13061.03946</v>
+        <v>13053.78162</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>16329.76074</v>
+        <v>16326.91857</v>
       </c>
       <c r="G56" s="47" t="n">
         <v>17592.91872</v>
@@ -2957,61 +3118,69 @@
         <v>26517.62843</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>28803.84318</v>
+        <v>28815.32364</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>36551.36492</v>
+        <v>36194.50577</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>39343.53603</v>
+        <v>39069.6698</v>
       </c>
       <c r="L56" s="47" t="n">
         <v>46446.31155</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>50911.32986999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>51444.74128</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>72059.213</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>33866.16144</v>
+        <v>33956.58478</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>34246.83623</v>
+        <v>34884.22089</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-47257.86182</v>
+        <v>-48209.99206</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>8036.99719</v>
+        <v>9925.246049999998</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-2714.67244999999</v>
+        <v>-2410.469139999986</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>34491.77857000001</v>
+        <v>34475.7781</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-16956.35831</v>
+        <v>-17514.6807</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-7285.949709999994</v>
+        <v>-23048.17631</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>148019.92491</v>
+        <v>147846.80297</v>
       </c>
       <c r="L57" s="47" t="n">
         <v>-117589.50081</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-5730.596090000004</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-5681.846090000004</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>38075.317</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,38 +3194,41 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L59" s="35" t="n">
         <v>164</v>
@@ -3064,8 +3236,11 @@
       <c r="M59" s="35" t="n">
         <v>123</v>
       </c>
-    </row>
-    <row r="60" spans="1:13">
+      <c r="N59" s="35" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>